--- a/MySmartLock/MySmartLocker.xlsx
+++ b/MySmartLock/MySmartLocker.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saaamar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saaamar\source\repos\MySmartLock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196AC74E-B0D1-4D92-9C32-0AA2D3AC810F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1FABBE-68F8-4657-A99F-F598F326008A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{332520F4-A6D1-49F8-BAAA-23A5BE170209}"/>
+    <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{332520F4-A6D1-49F8-BAAA-23A5BE170209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Samer</t>
   </si>
@@ -49,10 +48,16 @@
     <t>TimeHour</t>
   </si>
   <si>
-    <t>Random (PassCode)</t>
+    <t>Prime:</t>
   </si>
   <si>
-    <t>Prime:</t>
+    <t>Code 2:</t>
+  </si>
+  <si>
+    <t>Code 1:</t>
+  </si>
+  <si>
+    <t>usercode</t>
   </si>
 </sst>
 </file>
@@ -61,7 +66,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -157,7 +162,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4"/>
@@ -479,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA9194A-7971-414A-8366-43D3FC51C3C0}">
-  <dimension ref="A2:P10"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,21 +495,23 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>15486719</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -530,8 +537,11 @@
       <c r="K3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -540,31 +550,31 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <f ca="1">_xlfn.BITAND($B4,C$3)</f>
+        <f t="shared" ref="C4:I4" ca="1" si="0">_xlfn.BITAND($B4,C$3)</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f ca="1">_xlfn.BITAND($B4,D$3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f ca="1">_xlfn.BITAND($B4,E$3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f ca="1">_xlfn.BITAND($B4,F$3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="G4">
-        <f ca="1">_xlfn.BITAND($B4,G$3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="H4">
-        <f ca="1">_xlfn.BITAND($B4,H$3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="I4">
-        <f ca="1">_xlfn.BITAND($B4,I$3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
@@ -573,215 +583,476 @@
       </c>
       <c r="K4" t="str">
         <f ca="1" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030612</v>
+        <v>2019030807</v>
       </c>
       <c r="M4" t="str">
         <f ca="1">CONCATENATE(C4,D4,E4,F4,G4,H4,I4)</f>
         <v>000816320</v>
       </c>
       <c r="N4">
-        <f ca="1">M4*J4+J4</f>
-        <v>4081605</v>
-      </c>
-      <c r="O4" s="2">
-        <f ca="1">N4*K4+K4</f>
-        <v>8240887460122872</v>
-      </c>
-      <c r="P4" s="4">
-        <f ca="1">MOD(O4-$P$10,$B$2)</f>
-        <v>13034377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N4:N6" ca="1" si="1">J4+K4+M4+$Q$10</f>
+        <v>2025170868</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="4">
+        <f t="shared" ref="Q4" ca="1" si="2">MOD(N4,$B$2)</f>
+        <v>11897398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B7" ca="1" si="0">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A5," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A5," ","")))),1)))))-64*LEN(SUBSTITUTE(A5," ",""))</f>
+        <f t="shared" ref="B5:B7" ca="1" si="3">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A5," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A5," ","")))),1)))))-64*LEN(SUBSTITUTE(A5," ",""))</f>
         <v>47</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:H7" ca="1" si="1">_xlfn.BITAND($B5,C$3)</f>
+        <f t="shared" ref="C5:C7" ca="1" si="4">_xlfn.BITAND($B5,C$3)</f>
         <v>1</v>
       </c>
       <c r="D5">
-        <f ca="1">_xlfn.BITAND($B5,D$3)</f>
+        <f t="shared" ref="D5:I7" ca="1" si="5">_xlfn.BITAND($B5,D$3)</f>
         <v>2</v>
       </c>
       <c r="E5">
-        <f ca="1">_xlfn.BITAND($B5,E$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="F5">
-        <f ca="1">_xlfn.BITAND($B5,F$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
       <c r="G5">
-        <f ca="1">_xlfn.BITAND($B5,G$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f ca="1">_xlfn.BITAND($B5,H$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>32</v>
       </c>
       <c r="I5">
-        <f ca="1">_xlfn.BITAND($B5,I$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J7" si="2">LEN(A5)</f>
+        <f t="shared" ref="J5:J7" si="6">LEN(A5)</f>
         <v>4</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K7" ca="1" si="3" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030612</v>
+        <f t="shared" ref="K5:K7" ca="1" si="7" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
+        <v>2019030807</v>
       </c>
       <c r="M5" t="str">
         <f ca="1">CONCATENATE(C5,D5,E5,F5,G5,H5,I5)</f>
         <v>12480320</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:O5" ca="1" si="4">M5*J5+J5</f>
-        <v>49921284</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0079260260537642E+17</v>
-      </c>
-      <c r="P5" s="4">
-        <f ca="1">MOD(O5-$P$10,$B$2)</f>
-        <v>15171763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2036834867</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="4">
+        <f ca="1">MOD(N5,$B$2)</f>
+        <v>8074678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>32</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f ca="1">_xlfn.BITAND($B6,D$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f ca="1">_xlfn.BITAND($B6,E$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f ca="1">_xlfn.BITAND($B6,F$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f ca="1">_xlfn.BITAND($B6,G$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f ca="1">_xlfn.BITAND($B6,H$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>32</v>
       </c>
       <c r="I6">
-        <f ca="1">_xlfn.BITAND($B6,I$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2019030612</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2019030807</v>
       </c>
       <c r="M6" t="str">
         <f ca="1">CONCATENATE(C6,D6,E6,F6,G6,H6,I6)</f>
         <v>00000320</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:O6" ca="1" si="5">M6*J6+J6</f>
-        <v>1605</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>3242563162872</v>
-      </c>
-      <c r="P6" s="4">
-        <f ca="1">MOD(O6-$P$10,$B$2)</f>
-        <v>14009809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2024354868</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="4">
+        <f t="shared" ref="Q6:Q7" ca="1" si="8">MOD(N6,$B$2)</f>
+        <v>11081398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D7">
-        <f ca="1">_xlfn.BITAND($B7,D$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="E7">
-        <f ca="1">_xlfn.BITAND($B7,E$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f ca="1">_xlfn.BITAND($B7,F$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f ca="1">_xlfn.BITAND($B7,G$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>16</v>
       </c>
       <c r="H7">
-        <f ca="1">_xlfn.BITAND($B7,H$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f ca="1">_xlfn.BITAND($B7,I$3)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2019030612</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2019030807</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">CONCATENATE(C7,D7,E7,F7,G7,H7,I7)</f>
         <v>12001600</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:O7" ca="1" si="6">M7*J7+J7</f>
-        <v>48006404</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6926401267069856E+16</v>
-      </c>
-      <c r="P7" s="4">
-        <f ca="1">MOD(O7-$P$10,$B$2)</f>
-        <v>18953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O10" t="s">
+        <f ca="1">J7+K7+M7+$Q$10</f>
+        <v>2036356147</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>7595958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="5">
+        <f ca="1">RANDBETWEEN(1, $B$2)</f>
+        <v>5323736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="5">
-        <f ca="1">RANDBETWEEN(1, $B$2)</f>
-        <v>1875719</v>
+      <c r="B12">
+        <v>15486719</v>
+      </c>
+      <c r="N12" t="b">
+        <f ca="1">K5&gt;B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1">
+        <v>64</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f ca="1">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A14," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A14," ","")))),1)))))-64*LEN(SUBSTITUTE(A14," ",""))</f>
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:I17" ca="1" si="9">_xlfn.BITAND($B14,C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>LEN(A14)</f>
+        <v>5</v>
+      </c>
+      <c r="K14" t="str">
+        <f ca="1" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
+        <v>2019030807</v>
+      </c>
+      <c r="M14" t="str">
+        <f ca="1">CONCATENATE(C14,D14,E14,F14,G14,H14,I14)</f>
+        <v>000816320</v>
+      </c>
+      <c r="O14" s="2">
+        <f ca="1">M14+K14+J14</f>
+        <v>2019847132</v>
+      </c>
+      <c r="Q14" s="5">
+        <f ca="1">MOD(O14,$B$2)</f>
+        <v>6573662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B17" ca="1" si="10">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A15," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A15," ","")))),1)))))-64*LEN(SUBSTITUTE(A15," ",""))</f>
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J17" si="11">LEN(A15)</f>
+        <v>4</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" ref="K15:K17" ca="1" si="12" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
+        <v>2019030807</v>
+      </c>
+      <c r="M15" t="str">
+        <f ca="1">CONCATENATE(C15,D15,E15,F15,G15,H15,I15)</f>
+        <v>12480320</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2">
+        <f t="shared" ref="O15:O17" ca="1" si="13">M15+K15+J15</f>
+        <v>2031511131</v>
+      </c>
+      <c r="Q15" s="5">
+        <f ca="1">MOD(O15,$B$2)</f>
+        <v>2750942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2019030807</v>
+      </c>
+      <c r="M16" t="str">
+        <f ca="1">CONCATENATE(C16,D16,E16,F16,G16,H16,I16)</f>
+        <v>00000320</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>2019031132</v>
+      </c>
+      <c r="Q16" s="5">
+        <f ca="1">MOD(O16,$B$2)</f>
+        <v>5757662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2019030807</v>
+      </c>
+      <c r="M17" t="str">
+        <f ca="1">CONCATENATE(C17,D17,E17,F17,G17,H17,I17)</f>
+        <v>12001600</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>2031032411</v>
+      </c>
+      <c r="Q17" s="5">
+        <f ca="1">MOD(O17,$B$2)</f>
+        <v>2272222</v>
       </c>
     </row>
   </sheetData>

--- a/MySmartLock/MySmartLocker.xlsx
+++ b/MySmartLock/MySmartLocker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saaamar\source\repos\MySmartLock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saaamar\Documents\GitHub\SmartLocker\MySmartLock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1FABBE-68F8-4657-A99F-F598F326008A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF5D8B-7542-40CE-AAD5-41AD933087E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{332520F4-A6D1-49F8-BAAA-23A5BE170209}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,12 +591,12 @@
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N6" ca="1" si="1">J4+K4+M4+$Q$10</f>
-        <v>2025170868</v>
+        <v>2029748272</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4">
         <f t="shared" ref="Q4" ca="1" si="2">MOD(N4,$B$2)</f>
-        <v>11897398</v>
+        <v>988083</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -649,12 +649,12 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>2036834867</v>
+        <v>2041412271</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="4">
         <f ca="1">MOD(N5,$B$2)</f>
-        <v>8074678</v>
+        <v>12652082</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -707,12 +707,12 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="1"/>
-        <v>2024354868</v>
+        <v>2028932272</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:Q7" ca="1" si="8">MOD(N6,$B$2)</f>
-        <v>11081398</v>
+        <v>172083</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -765,12 +765,12 @@
       </c>
       <c r="N7">
         <f ca="1">J7+K7+M7+$Q$10</f>
-        <v>2036356147</v>
+        <v>2040933551</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7595958</v>
+        <v>12173362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q10" s="5">
         <f ca="1">RANDBETWEEN(1, $B$2)</f>
-        <v>5323736</v>
+        <v>9901140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -875,12 +875,12 @@
         <v>000816320</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">M14+K14+J14</f>
-        <v>2019847132</v>
+        <f t="shared" ref="O14:O17" ca="1" si="10">M14+K14+J14+$Q$10</f>
+        <v>2029748272</v>
       </c>
       <c r="Q14" s="5">
         <f ca="1">MOD(O14,$B$2)</f>
-        <v>6573662</v>
+        <v>988083</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B17" ca="1" si="10">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A15," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A15," ","")))),1)))))-64*LEN(SUBSTITUTE(A15," ",""))</f>
+        <f t="shared" ref="B15:B17" ca="1" si="11">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A15," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A15," ","")))),1)))))-64*LEN(SUBSTITUTE(A15," ",""))</f>
         <v>47</v>
       </c>
       <c r="C15">
@@ -920,11 +920,11 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J17" si="11">LEN(A15)</f>
+        <f t="shared" ref="J15:J17" si="12">LEN(A15)</f>
         <v>4</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:K17" ca="1" si="12" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
+        <f t="shared" ref="K15:K17" ca="1" si="13" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
         <v>2019030807</v>
       </c>
       <c r="M15" t="str">
@@ -933,12 +933,12 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2">
-        <f t="shared" ref="O15:O17" ca="1" si="13">M15+K15+J15</f>
-        <v>2031511131</v>
+        <f ca="1">M15+K15+J15+$Q$10</f>
+        <v>2041412271</v>
       </c>
       <c r="Q15" s="5">
         <f ca="1">MOD(O15,$B$2)</f>
-        <v>2750942</v>
+        <v>12652082</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>32</v>
       </c>
       <c r="C16">
@@ -978,11 +978,11 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2019030807</v>
       </c>
       <c r="M16" t="str">
@@ -990,12 +990,12 @@
         <v>00000320</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" ca="1" si="13"/>
-        <v>2019031132</v>
+        <f t="shared" ref="O16:O17" ca="1" si="14">M16+K16+J16+$Q$10</f>
+        <v>2028932272</v>
       </c>
       <c r="Q16" s="5">
         <f ca="1">MOD(O16,$B$2)</f>
-        <v>5757662</v>
+        <v>172083</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>19</v>
       </c>
       <c r="C17">
@@ -1035,11 +1035,11 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2019030807</v>
       </c>
       <c r="M17" t="str">
@@ -1047,12 +1047,12 @@
         <v>12001600</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" ca="1" si="13"/>
-        <v>2031032411</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2040933551</v>
       </c>
       <c r="Q17" s="5">
         <f ca="1">MOD(O17,$B$2)</f>
-        <v>2272222</v>
+        <v>12173362</v>
       </c>
     </row>
   </sheetData>

--- a/MySmartLock/MySmartLocker.xlsx
+++ b/MySmartLock/MySmartLocker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saaamar\Documents\GitHub\SmartLocker\MySmartLock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF5D8B-7542-40CE-AAD5-41AD933087E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948AA993-1065-4F85-B375-AEFD77113D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{332520F4-A6D1-49F8-BAAA-23A5BE170209}"/>
+    <workbookView xWindow="54735" yWindow="8265" windowWidth="28800" windowHeight="13545" xr2:uid="{332520F4-A6D1-49F8-BAAA-23A5BE170209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,19 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>Samer</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Jihad</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>TimeHour</t>
   </si>
@@ -58,6 +49,21 @@
   </si>
   <si>
     <t>usercode</t>
+  </si>
+  <si>
+    <t>samer</t>
+  </si>
+  <si>
+    <t>omar</t>
+  </si>
+  <si>
+    <t>jihad</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA9194A-7971-414A-8366-43D3FC51C3C0}">
-  <dimension ref="A2:Q17"/>
+  <dimension ref="A2:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,21 +503,21 @@
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
     <col min="16" max="16" width="26.28515625" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>15486719</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -533,17 +539,19 @@
       <c r="I3" s="1">
         <v>64</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <f ca="1">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A4," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A4," ","")))),1)))))-64*LEN(SUBSTITUTE(A4," ",""))</f>
@@ -578,70 +586,76 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f>LEN(A4)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
         <f ca="1" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030807</v>
+        <v>2020092709</v>
       </c>
       <c r="M4" t="str">
         <f ca="1">CONCATENATE(C4,D4,E4,F4,G4,H4,I4)</f>
         <v>000816320</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N6" ca="1" si="1">J4+K4+M4+$Q$10</f>
-        <v>2029748272</v>
+        <f t="shared" ref="N4:N5" ca="1" si="1">$J4+$K4+$M4+Q$10</f>
+        <v>2027189643</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O7" ca="1" si="2">$J4*$K4+$M4+R$10</f>
+        <v>2031516233</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4">
-        <f t="shared" ref="Q4" ca="1" si="2">MOD(N4,$B$2)</f>
-        <v>988083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q4:R4" ca="1" si="3">MOD(N4,$B$2)</f>
+        <v>13916173</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2756044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B7" ca="1" si="4">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A5," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A5," ","")))),1)))))-64*LEN(SUBSTITUTE(A5," ",""))</f>
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C7" ca="1" si="5">_xlfn.BITAND($B5,C$3)</f>
         <v>1</v>
       </c>
-      <c r="B5">
-        <f t="shared" ref="B5:B7" ca="1" si="3">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A5," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A5," ","")))),1)))))-64*LEN(SUBSTITUTE(A5," ",""))</f>
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C7" ca="1" si="4">_xlfn.BITAND($B5,C$3)</f>
-        <v>1</v>
-      </c>
       <c r="D5">
-        <f t="shared" ref="D5:I7" ca="1" si="5">_xlfn.BITAND($B5,D$3)</f>
+        <f t="shared" ref="D5:I7" ca="1" si="6">_xlfn.BITAND($B5,D$3)</f>
         <v>2</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>32</v>
       </c>
       <c r="I5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J7" si="6">LEN(A5)</f>
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K7" ca="1" si="7" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030807</v>
+        <v>2020092709</v>
       </c>
       <c r="M5" t="str">
         <f ca="1">CONCATENATE(C5,D5,E5,F5,G5,H5,I5)</f>
@@ -649,144 +663,171 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>2041412271</v>
+        <v>2038854642</v>
+      </c>
+      <c r="O5">
+        <f ca="1">$J5*$K5+$M5+R$10</f>
+        <v>2020115796524</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="4">
         <f ca="1">MOD(N5,$B$2)</f>
-        <v>12652082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10094453</v>
+      </c>
+      <c r="R5" s="4">
+        <f ca="1">MOD(O5,$B$2)</f>
+        <v>12683445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>32</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J5:J7" si="8">LEN(A6)</f>
         <v>5</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2019030807</v>
+        <v>2020092709</v>
       </c>
       <c r="M6" t="str">
         <f ca="1">CONCATENATE(C6,D6,E6,F6,G6,H6,I6)</f>
         <v>00000320</v>
       </c>
       <c r="N6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2028932272</v>
+        <f ca="1">$J6+$K6+$M6+Q$10</f>
+        <v>2026373647</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O7" ca="1" si="9">$J6*$K6+$M6+R$10</f>
+        <v>10111071069</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="4">
-        <f t="shared" ref="Q6:Q7" ca="1" si="8">MOD(N6,$B$2)</f>
-        <v>172083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q6:R7" ca="1" si="10">MOD(N6,$B$2)</f>
+        <v>13100177</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>13730281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>19</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>16</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2019030807</v>
+        <v>2020092709</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">CONCATENATE(C7,D7,E7,F7,G7,H7,I7)</f>
         <v>12001600</v>
       </c>
       <c r="N7">
-        <f ca="1">J7+K7+M7+$Q$10</f>
-        <v>2040933551</v>
+        <f t="shared" ref="N7" ca="1" si="11">$J7+$K7+$M7+Q$10</f>
+        <v>2038374926</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="9"/>
+        <v>8102979640</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>12173362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>9614737</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>3425603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q10" s="5">
         <f ca="1">RANDBETWEEN(1, $B$2)</f>
-        <v>9901140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6280613</v>
+      </c>
+      <c r="R10">
+        <v>10607204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>15486719</v>
@@ -796,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -820,46 +861,46 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>4</v>
       </c>
-      <c r="M13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f ca="1">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A14," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A14," ","")))),1)))))-64*LEN(SUBSTITUTE(A14," ",""))</f>
         <v>56</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:I17" ca="1" si="9">_xlfn.BITAND($B14,C$3)</f>
+        <f t="shared" ref="C14:I17" ca="1" si="12">_xlfn.BITAND($B14,C$3)</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>8</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>16</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>32</v>
       </c>
       <c r="I14">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="J14">
@@ -868,64 +909,64 @@
       </c>
       <c r="K14" t="str">
         <f ca="1" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030807</v>
+        <v>2020092709</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">CONCATENATE(C14,D14,E14,F14,G14,H14,I14)</f>
         <v>000816320</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" ref="O14:O17" ca="1" si="10">M14+K14+J14+$Q$10</f>
-        <v>2029748272</v>
+        <f t="shared" ref="O14" ca="1" si="13">M14+K14+J14+$Q$10</f>
+        <v>2027189647</v>
       </c>
       <c r="Q14" s="5">
         <f ca="1">MOD(O14,$B$2)</f>
-        <v>988083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>13916177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B17" ca="1" si="14">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A15," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A15," ","")))),1)))))-64*LEN(SUBSTITUTE(A15," ",""))</f>
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="B15">
-        <f t="shared" ref="B15:B17" ca="1" si="11">SUMPRODUCT((CODE(UPPER(MID(SUBSTITUTE(A15," ",""),ROW(INDIRECT("1:"&amp;LEN(SUBSTITUTE(A15," ","")))),1)))))-64*LEN(SUBSTITUTE(A15," ",""))</f>
-        <v>47</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
       <c r="D15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>4</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>8</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>32</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J17" si="12">LEN(A15)</f>
+        <f t="shared" ref="J15:J17" si="15">LEN(A15)</f>
         <v>4</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:K17" ca="1" si="13" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2019030807</v>
+        <f t="shared" ref="K15:K17" ca="1" si="16" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
+        <v>2020092709</v>
       </c>
       <c r="M15" t="str">
         <f ca="1">CONCATENATE(C15,D15,E15,F15,G15,H15,I15)</f>
@@ -934,125 +975,125 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2">
         <f ca="1">M15+K15+J15+$Q$10</f>
-        <v>2041412271</v>
+        <v>2038853646</v>
       </c>
       <c r="Q15" s="5">
         <f ca="1">MOD(O15,$B$2)</f>
-        <v>12652082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10093457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>32</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>32</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>2019030807</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2020092709</v>
       </c>
       <c r="M16" t="str">
         <f ca="1">CONCATENATE(C16,D16,E16,F16,G16,H16,I16)</f>
         <v>00000320</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" ref="O16:O17" ca="1" si="14">M16+K16+J16+$Q$10</f>
-        <v>2028932272</v>
+        <f t="shared" ref="O16:O17" ca="1" si="17">M16+K16+J16+$Q$10</f>
+        <v>2026373647</v>
       </c>
       <c r="Q16" s="5">
         <f ca="1">MOD(O16,$B$2)</f>
-        <v>172083</v>
+        <v>13100177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>19</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>16</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>2019030807</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2020092709</v>
       </c>
       <c r="M17" t="str">
         <f ca="1">CONCATENATE(C17,D17,E17,F17,G17,H17,I17)</f>
         <v>12001600</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" ca="1" si="14"/>
-        <v>2040933551</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2038374926</v>
       </c>
       <c r="Q17" s="5">
         <f ca="1">MOD(O17,$B$2)</f>
-        <v>12173362</v>
+        <v>9614737</v>
       </c>
     </row>
   </sheetData>

--- a/MySmartLock/MySmartLocker.xlsx
+++ b/MySmartLock/MySmartLocker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saaamar\Documents\GitHub\SmartLocker\MySmartLock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948AA993-1065-4F85-B375-AEFD77113D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC9260E-AEF4-43CC-AAFF-9B251E0251B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54735" yWindow="8265" windowWidth="28800" windowHeight="13545" xr2:uid="{332520F4-A6D1-49F8-BAAA-23A5BE170209}"/>
   </bookViews>
@@ -590,7 +590,7 @@
       </c>
       <c r="K4" t="str">
         <f ca="1" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2020092709</v>
+        <v>2020092711</v>
       </c>
       <c r="M4" t="str">
         <f ca="1">CONCATENATE(C4,D4,E4,F4,G4,H4,I4)</f>
@@ -598,20 +598,20 @@
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N5" ca="1" si="1">$J4+$K4+$M4+Q$10</f>
-        <v>2027189643</v>
+        <v>2024360337</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O7" ca="1" si="2">$J4*$K4+$M4+R$10</f>
-        <v>2031516233</v>
+        <f t="shared" ref="O4" ca="1" si="2">$J4*$K4+$M4+R$10</f>
+        <v>2022725278</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4">
         <f t="shared" ref="Q4:R4" ca="1" si="3">MOD(N4,$B$2)</f>
-        <v>13916173</v>
+        <v>11086867</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2756044</v>
+        <v>9451808</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K7" ca="1" si="7" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2020092709</v>
+        <v>2020092711</v>
       </c>
       <c r="M5" t="str">
         <f ca="1">CONCATENATE(C5,D5,E5,F5,G5,H5,I5)</f>
@@ -663,20 +663,20 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>2038854642</v>
+        <v>2036025336</v>
       </c>
       <c r="O5">
         <f ca="1">$J5*$K5+$M5+R$10</f>
-        <v>2020115796524</v>
+        <v>2020107007567</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="4">
         <f ca="1">MOD(N5,$B$2)</f>
-        <v>10094453</v>
+        <v>7265147</v>
       </c>
       <c r="R5" s="4">
         <f ca="1">MOD(O5,$B$2)</f>
-        <v>12683445</v>
+        <v>3894488</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -716,12 +716,11 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J5:J7" si="8">LEN(A6)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2020092709</v>
+        <v>2020092711</v>
       </c>
       <c r="M6" t="str">
         <f ca="1">CONCATENATE(C6,D6,E6,F6,G6,H6,I6)</f>
@@ -729,20 +728,20 @@
       </c>
       <c r="N6">
         <f ca="1">$J6+$K6+$M6+Q$10</f>
-        <v>2026373647</v>
+        <v>2023544356</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O7" ca="1" si="9">$J6*$K6+$M6+R$10</f>
-        <v>10111071069</v>
+        <f t="shared" ref="O6:O7" ca="1" si="8">$J6*$K6+$M6+R$10</f>
+        <v>40403670787</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="4">
-        <f t="shared" ref="Q6:R7" ca="1" si="10">MOD(N6,$B$2)</f>
-        <v>13100177</v>
+        <f t="shared" ref="Q6:R7" ca="1" si="9">MOD(N6,$B$2)</f>
+        <v>10270886</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>13730281</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>14307635</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -782,12 +781,12 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J7" si="10">LEN(A7)</f>
         <v>4</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2020092709</v>
+        <v>2020092711</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">CONCATENATE(C7,D7,E7,F7,G7,H7,I7)</f>
@@ -795,20 +794,20 @@
       </c>
       <c r="N7">
         <f t="shared" ref="N7" ca="1" si="11">$J7+$K7+$M7+Q$10</f>
-        <v>2038374926</v>
+        <v>2035545620</v>
       </c>
       <c r="O7">
-        <f t="shared" ca="1" si="9"/>
-        <v>8102979640</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8094188691</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>9614737</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6785431</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>3425603</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10121373</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -819,10 +818,10 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q10" s="5">
         <f ca="1">RANDBETWEEN(1, $B$2)</f>
-        <v>6280613</v>
+        <v>3451305</v>
       </c>
       <c r="R10">
-        <v>10607204</v>
+        <v>1816247</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -909,7 +908,7 @@
       </c>
       <c r="K14" t="str">
         <f ca="1" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2020092709</v>
+        <v>2020092711</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">CONCATENATE(C14,D14,E14,F14,G14,H14,I14)</f>
@@ -917,11 +916,11 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" ref="O14" ca="1" si="13">M14+K14+J14+$Q$10</f>
-        <v>2027189647</v>
+        <v>2024360341</v>
       </c>
       <c r="Q14" s="5">
         <f ca="1">MOD(O14,$B$2)</f>
-        <v>13916177</v>
+        <v>11086871</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -966,7 +965,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" ref="K15:K17" ca="1" si="16" xml:space="preserve"> TEXT(NOW(),"yyyymmddhh")</f>
-        <v>2020092709</v>
+        <v>2020092711</v>
       </c>
       <c r="M15" t="str">
         <f ca="1">CONCATENATE(C15,D15,E15,F15,G15,H15,I15)</f>
@@ -975,11 +974,11 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2">
         <f ca="1">M15+K15+J15+$Q$10</f>
-        <v>2038853646</v>
+        <v>2036024340</v>
       </c>
       <c r="Q15" s="5">
         <f ca="1">MOD(O15,$B$2)</f>
-        <v>10093457</v>
+        <v>7264151</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1024,7 +1023,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2020092709</v>
+        <v>2020092711</v>
       </c>
       <c r="M16" t="str">
         <f ca="1">CONCATENATE(C16,D16,E16,F16,G16,H16,I16)</f>
@@ -1032,11 +1031,11 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" ref="O16:O17" ca="1" si="17">M16+K16+J16+$Q$10</f>
-        <v>2026373647</v>
+        <v>2023544341</v>
       </c>
       <c r="Q16" s="5">
         <f ca="1">MOD(O16,$B$2)</f>
-        <v>13100177</v>
+        <v>10270871</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1081,7 +1080,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2020092709</v>
+        <v>2020092711</v>
       </c>
       <c r="M17" t="str">
         <f ca="1">CONCATENATE(C17,D17,E17,F17,G17,H17,I17)</f>
@@ -1089,11 +1088,11 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>2038374926</v>
+        <v>2035545620</v>
       </c>
       <c r="Q17" s="5">
         <f ca="1">MOD(O17,$B$2)</f>
-        <v>9614737</v>
+        <v>6785431</v>
       </c>
     </row>
   </sheetData>
